--- a/example/param/parameters.xlsx
+++ b/example/param/parameters.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialinechardelin/scripts/main/creeePY/example/param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A7245-39C1-5440-8C6A-4A379B02D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCC53BE-36D0-1B42-9633-8D93791FCDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="23660" windowHeight="14120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="23660" windowHeight="14120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plot" sheetId="1" r:id="rId1"/>
-    <sheet name="param" sheetId="2" r:id="rId2"/>
-    <sheet name="legend" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="plot" sheetId="1" r:id="rId2"/>
+    <sheet name="param" sheetId="2" r:id="rId3"/>
+    <sheet name="legend" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">legend!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">param!$A$1:$G$88</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="1">param!$A$1:$D$1</definedName>
-    <definedName name="labels" localSheetId="2">legend!$A$1:$E$3</definedName>
-    <definedName name="param_1" localSheetId="1">param!$A$1:$G$74</definedName>
-    <definedName name="plot_2" localSheetId="0">plot!$A$1:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">legend!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">param!$A$1:$G$88</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="2">param!$A$1:$D$1</definedName>
+    <definedName name="labels" localSheetId="3">legend!$A$1:$E$3</definedName>
+    <definedName name="param_1" localSheetId="2">param!$A$1:$G$74</definedName>
+    <definedName name="plot" localSheetId="0">Sheet1!$A$1:$W$1</definedName>
+    <definedName name="plot_2" localSheetId="1">plot!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,14 +36,42 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{735A77E1-5938-3D47-AC9D-6B9A84FAD74C}" name="plot" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marialinechardelin/scripts/main/creeePY/example/param/plot.csv" decimal="," thousands=" " delimiter="&amp;">
+      <textFields count="23">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
   <si>
     <t>df</t>
   </si>
@@ -118,9 +148,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -148,9 +175,6 @@
     <t>porph</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>rex</t>
   </si>
   <si>
@@ -211,27 +235,15 @@
     <t>id</t>
   </si>
   <si>
-    <t>catX</t>
-  </si>
-  <si>
-    <t>catY</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>ann</t>
-  </si>
-  <si>
     <t>cmap</t>
   </si>
   <si>
     <t>proj</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>col_subcat</t>
   </si>
   <si>
@@ -263,6 +275,111 @@
   </si>
   <si>
     <t>liked</t>
+  </si>
+  <si>
+    <t>plot.id</t>
+  </si>
+  <si>
+    <t>plot.xx</t>
+  </si>
+  <si>
+    <t>plot.yy</t>
+  </si>
+  <si>
+    <t>plot.x</t>
+  </si>
+  <si>
+    <t>plot.y</t>
+  </si>
+  <si>
+    <t>plot.df</t>
+  </si>
+  <si>
+    <t>plot.facecolor</t>
+  </si>
+  <si>
+    <t>plot.edgecolor</t>
+  </si>
+  <si>
+    <t>plot.marker</t>
+  </si>
+  <si>
+    <t>plot.s</t>
+  </si>
+  <si>
+    <t>plot.alpha</t>
+  </si>
+  <si>
+    <t>plot.c</t>
+  </si>
+  <si>
+    <t>plot.cmap</t>
+  </si>
+  <si>
+    <t>plot.type</t>
+  </si>
+  <si>
+    <t>plot.proj</t>
+  </si>
+  <si>
+    <t>plot.annotate</t>
+  </si>
+  <si>
+    <t>plot.xlim</t>
+  </si>
+  <si>
+    <t>plot.ylim</t>
+  </si>
+  <si>
+    <t>plot.sort</t>
+  </si>
+  <si>
+    <t>plot.values</t>
+  </si>
+  <si>
+    <t>plot.textbox</t>
+  </si>
+  <si>
+    <t>plot.shareX</t>
+  </si>
+  <si>
+    <t>plot.shareY</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>xlim</t>
+  </si>
+  <si>
+    <t>ylim</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>shareX</t>
+  </si>
+  <si>
+    <t>shareY</t>
   </si>
 </sst>
 </file>
@@ -346,6 +463,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="plot" connectionId="1" xr16:uid="{EFE7B220-B01D-1F4A-9F71-298317387332}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,11 +765,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477FE5F2-E29E-114D-A3B2-95FA02FD2400}">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,128 +890,144 @@
     <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="24.1640625" style="1" customWidth="1"/>
-    <col min="14" max="257" width="10.83203125" style="1"/>
+    <col min="14" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
+    <col min="22" max="257" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="R2" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -806,7 +1049,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -828,7 +1071,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -850,7 +1093,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -872,7 +1115,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -894,7 +1137,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -916,7 +1159,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -938,7 +1181,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -960,7 +1203,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -982,7 +1225,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1004,7 +1247,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1026,7 +1269,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1048,7 +1291,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1070,7 +1313,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2275,7 +2518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
@@ -2296,45 +2539,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4">
@@ -2346,19 +2589,19 @@
     </row>
     <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
@@ -2370,19 +2613,19 @@
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -2394,19 +2637,19 @@
     </row>
     <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -2418,19 +2661,19 @@
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
@@ -2442,19 +2685,19 @@
     </row>
     <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -2466,19 +2709,19 @@
     </row>
     <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
@@ -2490,19 +2733,19 @@
     </row>
     <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
@@ -2514,19 +2757,19 @@
     </row>
     <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -2538,19 +2781,19 @@
     </row>
     <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -2562,19 +2805,19 @@
     </row>
     <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -2586,22 +2829,22 @@
     </row>
     <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -2612,22 +2855,22 @@
     </row>
     <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -2638,19 +2881,19 @@
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
@@ -2662,19 +2905,19 @@
     </row>
     <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
@@ -2686,19 +2929,19 @@
     </row>
     <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -2710,19 +2953,19 @@
     </row>
     <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -2734,19 +2977,19 @@
     </row>
     <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
@@ -2758,19 +3001,19 @@
     </row>
     <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -2782,19 +3025,19 @@
     </row>
     <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -3409,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G112"/>
   <sheetViews>
@@ -3428,19 +3671,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/example/param/parameters.xlsx
+++ b/example/param/parameters.xlsx
@@ -8,24 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialinechardelin/scripts/main/creeePY/example/param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCC53BE-36D0-1B42-9633-8D93791FCDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A7245-39C1-5440-8C6A-4A379B02D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="23660" windowHeight="14120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="23660" windowHeight="14120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="plot" sheetId="1" r:id="rId2"/>
-    <sheet name="param" sheetId="2" r:id="rId3"/>
-    <sheet name="legend" sheetId="3" r:id="rId4"/>
+    <sheet name="plot" sheetId="1" r:id="rId1"/>
+    <sheet name="param" sheetId="2" r:id="rId2"/>
+    <sheet name="legend" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">legend!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">param!$A$1:$G$88</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="2">param!$A$1:$D$1</definedName>
-    <definedName name="labels" localSheetId="3">legend!$A$1:$E$3</definedName>
-    <definedName name="param_1" localSheetId="2">param!$A$1:$G$74</definedName>
-    <definedName name="plot" localSheetId="0">Sheet1!$A$1:$W$1</definedName>
-    <definedName name="plot_2" localSheetId="1">plot!$A$1:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">legend!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">param!$A$1:$G$88</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="1">param!$A$1:$D$1</definedName>
+    <definedName name="labels" localSheetId="2">legend!$A$1:$E$3</definedName>
+    <definedName name="param_1" localSheetId="1">param!$A$1:$G$74</definedName>
+    <definedName name="plot_2" localSheetId="0">plot!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -36,42 +34,14 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{735A77E1-5938-3D47-AC9D-6B9A84FAD74C}" name="plot" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marialinechardelin/scripts/main/creeePY/example/param/plot.csv" decimal="," thousands=" " delimiter="&amp;">
-      <textFields count="23">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
   <si>
     <t>df</t>
   </si>
@@ -148,6 +118,9 @@
     <t>yellow</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -175,6 +148,9 @@
     <t>porph</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>rex</t>
   </si>
   <si>
@@ -235,15 +211,27 @@
     <t>id</t>
   </si>
   <si>
+    <t>catX</t>
+  </si>
+  <si>
+    <t>catY</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
+    <t>ann</t>
+  </si>
+  <si>
     <t>cmap</t>
   </si>
   <si>
     <t>proj</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>col_subcat</t>
   </si>
   <si>
@@ -275,111 +263,6 @@
   </si>
   <si>
     <t>liked</t>
-  </si>
-  <si>
-    <t>plot.id</t>
-  </si>
-  <si>
-    <t>plot.xx</t>
-  </si>
-  <si>
-    <t>plot.yy</t>
-  </si>
-  <si>
-    <t>plot.x</t>
-  </si>
-  <si>
-    <t>plot.y</t>
-  </si>
-  <si>
-    <t>plot.df</t>
-  </si>
-  <si>
-    <t>plot.facecolor</t>
-  </si>
-  <si>
-    <t>plot.edgecolor</t>
-  </si>
-  <si>
-    <t>plot.marker</t>
-  </si>
-  <si>
-    <t>plot.s</t>
-  </si>
-  <si>
-    <t>plot.alpha</t>
-  </si>
-  <si>
-    <t>plot.c</t>
-  </si>
-  <si>
-    <t>plot.cmap</t>
-  </si>
-  <si>
-    <t>plot.type</t>
-  </si>
-  <si>
-    <t>plot.proj</t>
-  </si>
-  <si>
-    <t>plot.annotate</t>
-  </si>
-  <si>
-    <t>plot.xlim</t>
-  </si>
-  <si>
-    <t>plot.ylim</t>
-  </si>
-  <si>
-    <t>plot.sort</t>
-  </si>
-  <si>
-    <t>plot.values</t>
-  </si>
-  <si>
-    <t>plot.textbox</t>
-  </si>
-  <si>
-    <t>plot.shareX</t>
-  </si>
-  <si>
-    <t>plot.shareY</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>annotate</t>
-  </si>
-  <si>
-    <t>xlim</t>
-  </si>
-  <si>
-    <t>ylim</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>shareX</t>
-  </si>
-  <si>
-    <t>shareY</t>
   </si>
 </sst>
 </file>
@@ -463,10 +346,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="plot" connectionId="1" xr16:uid="{EFE7B220-B01D-1F4A-9F71-298317387332}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,117 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477FE5F2-E29E-114D-A3B2-95FA02FD2400}">
-  <dimension ref="A1:W1"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,144 +663,128 @@
     <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="24.1640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
-    <col min="17" max="20" width="10.83203125" style="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
-    <col min="22" max="257" width="10.83203125" style="1"/>
+    <col min="14" max="257" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1049,7 +806,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1071,7 +828,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1093,7 +850,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1115,7 +872,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1137,7 +894,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1159,7 +916,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1181,7 +938,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1203,7 +960,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1225,7 +982,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1247,7 +1004,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1269,7 +1026,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1291,7 +1048,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1313,7 +1070,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2518,7 +2275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
@@ -2539,45 +2296,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4">
@@ -2589,19 +2346,19 @@
     </row>
     <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
@@ -2613,19 +2370,19 @@
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -2637,19 +2394,19 @@
     </row>
     <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -2661,19 +2418,19 @@
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
@@ -2685,19 +2442,19 @@
     </row>
     <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -2709,19 +2466,19 @@
     </row>
     <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
@@ -2733,19 +2490,19 @@
     </row>
     <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
@@ -2757,19 +2514,19 @@
     </row>
     <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -2781,19 +2538,19 @@
     </row>
     <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -2805,19 +2562,19 @@
     </row>
     <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -2829,22 +2586,22 @@
     </row>
     <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -2855,22 +2612,22 @@
     </row>
     <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -2881,19 +2638,19 @@
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
@@ -2905,19 +2662,19 @@
     </row>
     <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
@@ -2929,19 +2686,19 @@
     </row>
     <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -2953,19 +2710,19 @@
     </row>
     <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -2977,19 +2734,19 @@
     </row>
     <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
@@ -3001,19 +2758,19 @@
     </row>
     <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -3025,19 +2782,19 @@
     </row>
     <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -3652,7 +3409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G112"/>
   <sheetViews>
@@ -3671,19 +3428,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/example/param/parameters.xlsx
+++ b/example/param/parameters.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialinechardelin/scripts/main/creeePY/example/param/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A7245-39C1-5440-8C6A-4A379B02D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="23660" windowHeight="14120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="plot" sheetId="1" r:id="rId1"/>
-    <sheet name="param" sheetId="2" r:id="rId2"/>
-    <sheet name="legend" sheetId="3" r:id="rId3"/>
+    <sheet name="plot" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="param" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="legend" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">legend!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">param!$A$1:$G$88</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="1">param!$A$1:$D$1</definedName>
-    <definedName name="labels" localSheetId="2">legend!$A$1:$E$3</definedName>
-    <definedName name="param_1" localSheetId="1">param!$A$1:$G$74</definedName>
-    <definedName name="plot_2" localSheetId="0">plot!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">legend!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">param!$A$1:$G$88</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="plot_2" vbProcedure="false">plot!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">param!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="param_1" vbProcedure="false">param!$A$1:$G$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="labels" vbProcedure="false">legend!$A$1:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -37,239 +32,242 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>facecolor</t>
-  </si>
-  <si>
-    <t>marker</t>
-  </si>
-  <si>
-    <t>hatches</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>edgecolor</t>
-  </si>
-  <si>
-    <t>Calcite</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>Amphibole</t>
-  </si>
-  <si>
-    <t>aquamarine</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>notIndexed</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Spinelle</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Plagioclase</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Clinopyroxene</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Olivine</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>porph</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>rex</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Orthopyroxene</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>ENsimp</t>
-  </si>
-  <si>
-    <t>FRsimp</t>
-  </si>
-  <si>
-    <t>Chlorite</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>south</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>north</t>
-  </si>
-  <si>
-    <t>protomylonite BT</t>
-  </si>
-  <si>
-    <t>mylonite HT</t>
-  </si>
-  <si>
-    <t>mylonite BT</t>
-  </si>
-  <si>
-    <t>ultramylonite</t>
-  </si>
-  <si>
-    <t>ˆ</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>catX</t>
-  </si>
-  <si>
-    <t>catY</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>ann</t>
-  </si>
-  <si>
-    <t>cmap</t>
-  </si>
-  <si>
-    <t>proj</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>col_subcat</t>
-  </si>
-  <si>
-    <t>col_sscat</t>
-  </si>
-  <si>
-    <t>pondEGD</t>
-  </si>
-  <si>
-    <t>pondGOS</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>col_massif</t>
-  </si>
-  <si>
-    <t>col_FACIESEGDmixte</t>
-  </si>
-  <si>
-    <t>XY</t>
-  </si>
-  <si>
-    <t>list_85ZA1_85ZA7b-new</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>liked</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col_subcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col_sscat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pondEGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pondGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col_massif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col_FACIESEGDmixte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_85ZA1_85ZA7b-new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthopyroxene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinopyroxene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plagioclase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphibole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notIndexed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protomylonite BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mylonite HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mylonite BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultramylonite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENsimp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRsimp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -278,13 +276,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif JP"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -295,6 +310,8 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif JP"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,7 +323,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -314,477 +331,217 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IW95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="24.1640625" style="1" customWidth="1"/>
-    <col min="14" max="257" width="10.83203125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="1" width="9.99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -806,7 +563,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -828,7 +585,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -850,7 +607,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -872,7 +629,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -894,7 +651,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -916,7 +673,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -938,7 +695,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -960,7 +717,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -982,7 +739,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1004,7 +761,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1026,7 +783,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1048,7 +805,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1070,7 +827,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1092,7 +849,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1114,7 +871,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1136,7 +893,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1158,7 +915,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1180,7 +937,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1202,7 +959,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1224,7 +981,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1246,7 +1003,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1268,7 +1025,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1290,7 +1047,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1312,7 +1069,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1334,7 +1091,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1356,7 +1113,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1378,7 +1135,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1400,7 +1157,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1422,7 +1179,7 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1444,7 +1201,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1466,7 +1223,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1488,7 +1245,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1510,7 +1267,7 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1532,7 +1289,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1554,7 +1311,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1576,7 +1333,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1598,7 +1355,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1620,7 +1377,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1642,7 +1399,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1664,7 +1421,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1686,7 +1443,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1708,7 +1465,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1730,7 +1487,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1752,7 +1509,7 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1774,7 +1531,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1796,7 +1553,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1818,7 +1575,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1840,7 +1597,7 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1862,7 +1619,7 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1884,7 +1641,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1906,7 +1663,7 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1928,7 +1685,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1950,7 +1707,7 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1972,7 +1729,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1994,7 +1751,7 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2016,7 +1773,7 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2038,7 +1795,7 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2060,7 +1817,7 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2082,7 +1839,7 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2104,7 +1861,7 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2126,7 +1883,7 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2148,7 +1905,7 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2170,7 +1927,7 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2192,7 +1949,7 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2214,7 +1971,7 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2236,575 +1993,583 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H13" s="4" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H20" s="4" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H21" s="4" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2813,7 +2578,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2822,7 +2587,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2831,7 +2596,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2840,7 +2605,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2849,7 +2614,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2858,7 +2623,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2867,7 +2632,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2876,7 +2641,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2885,7 +2650,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2894,7 +2659,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2903,7 +2668,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2912,7 +2677,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2921,7 +2686,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2930,7 +2695,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2939,7 +2704,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2948,7 +2713,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2957,7 +2722,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2966,7 +2731,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2975,7 +2740,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2984,7 +2749,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2993,7 +2758,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3002,7 +2767,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3011,7 +2776,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3020,7 +2785,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3029,7 +2794,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3038,7 +2803,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3047,7 +2812,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3056,7 +2821,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3065,7 +2830,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3074,7 +2839,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3083,7 +2848,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3092,7 +2857,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3101,7 +2866,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3110,7 +2875,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3119,7 +2884,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3128,7 +2893,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3137,7 +2902,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3146,7 +2911,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3155,7 +2920,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3164,7 +2929,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3173,7 +2938,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3182,7 +2947,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3191,7 +2956,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3200,7 +2965,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3209,7 +2974,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3218,7 +2983,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3227,7 +2992,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3236,7 +3001,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="71" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3245,7 +3010,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="72" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3254,7 +3019,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="73" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3263,7 +3028,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3272,7 +3037,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3281,7 +3046,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3290,7 +3055,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3299,7 +3064,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3308,7 +3073,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3317,7 +3082,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="80" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3326,7 +3091,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="81" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3335,7 +3100,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="82" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3344,7 +3109,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="83" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3353,7 +3118,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="84" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3362,7 +3127,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="85" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3371,7 +3136,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3380,7 +3145,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3389,7 +3154,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3399,60 +3164,69 @@
       <c r="G88" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G88" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G88">
-      <sortCondition ref="A1:A88"/>
+  <autoFilter ref="A1:G88">
+    <sortState ref="A2:G88">
+      <sortCondition ref="A2:A88" customList=""/>
     </sortState>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3461,7 +3235,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3470,7 +3244,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3479,7 +3253,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3488,7 +3262,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3497,7 +3271,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3506,7 +3280,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3515,7 +3289,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3524,7 +3298,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3533,7 +3307,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3542,7 +3316,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3551,7 +3325,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3560,7 +3334,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3569,7 +3343,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3578,7 +3352,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3587,7 +3361,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3596,7 +3370,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3605,7 +3379,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3614,7 +3388,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3623,7 +3397,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3632,7 +3406,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3641,7 +3415,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3650,7 +3424,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3659,7 +3433,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3668,7 +3442,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3677,7 +3451,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3686,7 +3460,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3695,7 +3469,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3704,21 +3478,21 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3727,7 +3501,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3736,7 +3510,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3745,7 +3519,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3754,7 +3528,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3763,7 +3537,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3772,7 +3546,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3781,7 +3555,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3790,7 +3564,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3799,14 +3573,14 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3815,7 +3589,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3824,14 +3598,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3840,7 +3614,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3849,14 +3623,14 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3865,7 +3639,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3874,7 +3648,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3883,427 +3657,427 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="71" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="72" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="73" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="80" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="81" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="82" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="83" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="84" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="85" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="89" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="90" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="91" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="92" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="93" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="94" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="95" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="96" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="98" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="99" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="100" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="101" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="102" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="103" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="104" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="105" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="106" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="107" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="108" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="109" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="110" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="111" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="112" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4311,12 +4085,18 @@
       <c r="E112" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
-      <sortCondition ref="A1:A140"/>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G1">
+      <sortCondition ref="A2:A1" customList=""/>
     </sortState>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>